--- a/think tank/fundamentals/v1.1/quarterly-earnings-demo.xlsx
+++ b/think tank/fundamentals/v1.1/quarterly-earnings-demo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,32 +471,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>2022-07-31</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>2022-08-16</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-0.0646</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>11.6667</t>
         </is>
       </c>
     </row>
@@ -506,32 +506,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-03-31</t>
+          <t>2022-04-30</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2022-03-31</t>
+          <t>2022-05-24</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-0.018</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>0.8929</t>
         </is>
       </c>
     </row>
@@ -541,32 +541,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2022-01-31</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2022-02-22</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-0.0983</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2.5424</t>
         </is>
       </c>
     </row>
@@ -576,32 +576,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-06-30</t>
+          <t>2021-10-31</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2021-09-30</t>
+          <t>2021-11-22</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-0.0484</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-0.0484</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2.5424</t>
         </is>
       </c>
     </row>
@@ -611,32 +611,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-03-31</t>
+          <t>2021-07-31</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2021-06-30</t>
+          <t>2021-08-17</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-0.0004</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-0.0004</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>11.1111</t>
         </is>
       </c>
     </row>
@@ -646,32 +646,3007 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-12-31</t>
+          <t>2021-04-30</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2021-02-08</t>
+          <t>2021-05-25</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-0.0001</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>16.8675</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2021-01-31</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2021-02-16</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>19.1011</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-10-31</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2020-11-23</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>5.3763</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-07-31</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2020-08-18</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>18.1818</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2020-05-21</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>16.3934</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2020-01-31</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>-0.0001</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>None</t>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2019-10-31</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2019-11-25</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>3.4884</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2019-07-31</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2019-08-14</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>5.5556</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2019-04-30</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2019-05-14</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>-1.3889</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2019-01-31</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2019-02-20</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>4.1096</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2018-10-31</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2018-11-19</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>9.4595</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2018-07-31</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2018-08-14</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>6.3492</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2018-04-30</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2018-05-14</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.5625</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2018-01-31</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2018-02-14</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>13.7931</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2017-10-31</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2017-11-20</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>8.0645</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2017-07-31</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2017-08-15</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>13.4615</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2017-04-30</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2017-05-22</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>20.8333</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2017-01-31</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2017-02-14</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>8.1633</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2016-10-31</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2016-11-15</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>13.4615</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2016-07-31</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2016-08-17</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>4.2553</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2016-04-30</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2016-05-16</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>12.8205</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2016-01-31</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2016-02-16</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>6.9767</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2015-10-31</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2015-11-16</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>6.383</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2015-07-31</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2015-08-17</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>7.3171</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2015-04-30</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2015-05-18</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>-2.5641</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2015-01-31</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2015-02-17</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2014-10-31</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2014-11-17</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>-1.1236</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2014-07-31</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2014-08-14</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>5.4054</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2014-04-30</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2014-05-14</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>-1.3699</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2014-01-31</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2014-02-13</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>1.5152</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2013-10-31</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2013-11-14</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>6.5789</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2013-07-31</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2013-08-14</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>9.6774</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2013-04-30</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2013-05-14</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>14.9254</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2013-01-31</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2013-02-14</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>-0.04</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>-5.9701</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2012-10-31</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2012-11-19</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2012-07-31</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2012-08-15</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>-0.04</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>-4.8193</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2012-04-30</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2012-05-14</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>6.8493</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2012-01-31</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2012-02-15</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2011-10-31</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2011-11-15</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>3.7037</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2011-07-31</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2011-08-15</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>5.4795</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2011-04-30</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2011-05-13</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>13.8462</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2011-01-31</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2011-02-14</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>5.2632</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2010-10-31</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2010-11-12</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>8.3333</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2010-07-31</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2010-08-16</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>12.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2010-04-30</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2010-05-17</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>4.878</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2010-01-31</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2010-02-12</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>18.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2009-10-31</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2009-11-13</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>39.1304</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2009-07-31</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2009-08-17</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>36.3636</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2009-04-30</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2009-05-14</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2009-01-31</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2009-02-17</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>-0.08</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>-28.5714</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2008-10-31</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2008-11-14</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>5.0847</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2008-07-31</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2008-08-14</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>-1.8519</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2008-04-30</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2008-05-14</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2008-01-31</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2008-02-13</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>2.439</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2007-10-31</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2007-11-15</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>1.9231</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2007-07-31</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2007-08-14</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>-2.0408</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2007-04-30</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2007-05-14</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>-2.2727</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2007-01-31</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2007-02-15</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2006-10-31</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2006-11-14</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>-3.7037</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2006-07-31</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2006-08-14</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>9.5238</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2006-04-30</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2006-05-15</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>8.1081</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2006-01-31</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2006-02-13</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>6.6667</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2005-10-31</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2005-11-14</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>2.7027</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2005-07-31</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2005-08-15</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>7.6923</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2005-04-30</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2005-05-16</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2005-01-31</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2005-02-14</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>5.2632</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2004-10-31</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2004-11-11</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>-3.2258</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2004-07-31</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2004-08-12</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>7.1429</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2004-04-30</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>2004-05-17</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2004-01-31</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2004-02-17</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>-4.5455</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2003-10-31</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2003-11-17</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>2003-07-31</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2003-08-18</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>-0.07</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>71.4286</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2003-04-30</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2003-05-19</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>-0.15</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>-0.15</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2003-01-31</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>2003-02-21</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>-0.23</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>-0.25</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2002-10-31</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2002-11-18</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>-0.5075</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>-0.12</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>-0.3875</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>-322.9167</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2002-07-31</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2002-08-19</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>-0.31</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>-0.15</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>-0.16</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>-106.6667</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2002-04-30</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2002-05-16</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>-0.31</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>-0.23</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>-0.08</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>-34.7826</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2002-01-31</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>2002-02-19</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>-0.29</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>-0.43</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>32.5581</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2001-10-31</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>2001-11-15</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>-0.6</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>-0.58</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>-3.4483</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2001-07-31</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>2001-08-20</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>-0.24</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>-0.35</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>31.4286</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2001-04-30</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>2001-05-17</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>-0.15</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>-57.6923</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2001-01-31</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>2001-02-20</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>13.3333</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2000-10-31</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>2000-11-20</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>35.1852</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2000-07-31</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>2000-08-17</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2000-04-30</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>2000-05-16</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>9.375</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2000-01-31</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>2000-02-17</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>36.3636</t>
         </is>
       </c>
     </row>
